--- a/Data exploration_PT/parameter test ML proj1.xlsx
+++ b/Data exploration_PT/parameter test ML proj1.xlsx
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.70208000000000004</v>
-      </c>
-      <c r="C10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.65329999999999999</v>
+        <v>0.74875999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.72897999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.66620000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -551,13 +551,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.71206000000000003</v>
-      </c>
-      <c r="C17">
-        <v>0.70691999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.66500000000000004</v>
+        <v>0.75004000000000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72696000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.66679999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.70125999999999999</v>
+        <v>0.74875999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.69155999999999995</v>
+        <v>0.73834</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.69145999999999996</v>
+        <v>0.73877999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.69782</v>
+        <v>0.72396000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.69710000000000005</v>
+        <v>0.72262000000000004</v>
       </c>
     </row>
   </sheetData>
